--- a/thresholds/IGCSE/travel-and-tourism/travel-and-tourism-thresholds.xlsx
+++ b/thresholds/IGCSE/travel-and-tourism/travel-and-tourism-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,48 +739,48 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,36 +862,36 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BX 03,11</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>300</v>
       </c>
       <c r="C11" t="n">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D11" t="n">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E11" t="n">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G11" t="n">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H11" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BY 03,12</t>
+          <t>BX 03,11</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CY 12,83</t>
+          <t>BY 03,12</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,48 +985,48 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>CY 12,83</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>300</v>
       </c>
       <c r="C14" t="n">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="D14" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E14" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F14" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G14" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H14" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I14" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,36 +1108,36 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BX 03,11</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>300</v>
       </c>
       <c r="C17" t="n">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D17" t="n">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="E17" t="n">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F17" t="n">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G17" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H17" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I17" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BY 03,12</t>
+          <t>BX 03,11</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,7 +1190,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CY 12,83</t>
+          <t>BY 03,12</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1231,48 +1231,48 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>CY 12,83</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D20" t="n">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="F20" t="n">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G20" t="n">
+        <v>122</v>
+      </c>
+      <c r="H20" t="n">
         <v>98</v>
       </c>
-      <c r="H20" t="n">
-        <v>77</v>
-      </c>
       <c r="I20" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1313,7 +1313,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1354,36 +1354,36 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BX 03,11</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>300</v>
       </c>
       <c r="C23" t="n">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="D23" t="n">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E23" t="n">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="F23" t="n">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G23" t="n">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H23" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I23" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BY 03,12</t>
+          <t>BX 03,11</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1436,7 +1436,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BZ 03,13</t>
+          <t>BY 03,12</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1477,7 +1477,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CY 12,83</t>
+          <t>BZ 03,13</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1518,48 +1518,48 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>CY 12,83</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="D27" t="n">
+        <v>211</v>
+      </c>
+      <c r="E27" t="n">
+        <v>176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>142</v>
+      </c>
+      <c r="G27" t="n">
+        <v>115</v>
+      </c>
+      <c r="H27" t="n">
         <v>89</v>
       </c>
-      <c r="E27" t="n">
-        <v>73</v>
-      </c>
-      <c r="F27" t="n">
-        <v>57</v>
-      </c>
-      <c r="G27" t="n">
-        <v>46</v>
-      </c>
-      <c r="H27" t="n">
-        <v>36</v>
-      </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1600,7 +1600,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1641,48 +1641,48 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>160</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D30" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E30" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F30" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1723,32 +1723,32 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1764,32 +1764,32 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>160</v>
       </c>
       <c r="C33" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E33" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F33" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H33" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I33" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1798,14 +1798,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1846,7 +1846,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1879,6 +1879,47 @@
         </is>
       </c>
       <c r="K35" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,23</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>160</v>
+      </c>
+      <c r="C36" t="n">
+        <v>105</v>
+      </c>
+      <c r="D36" t="n">
+        <v>90</v>
+      </c>
+      <c r="E36" t="n">
+        <v>75</v>
+      </c>
+      <c r="F36" t="n">
+        <v>60</v>
+      </c>
+      <c r="G36" t="n">
+        <v>48</v>
+      </c>
+      <c r="H36" t="n">
+        <v>37</v>
+      </c>
+      <c r="I36" t="n">
+        <v>27</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
